--- a/SVD/Com_Methods/Com_Methods/Data/Excel_Data/6.xlsx
+++ b/SVD/Com_Methods/Com_Methods/Data/Excel_Data/6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Жопчики\Desktop\Даша\projects-with-git\чм 4 лаба\SVD\Com_Methods\Com_Methods\Data\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAB180E-C7D5-47AA-96A1-1C2D2D6CDD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78AC237-18E2-477F-9765-C195F16C3741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <font>
         <color auto="1"/>
@@ -165,47 +165,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -590,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="E7" sqref="C7:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,635 +2054,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:V32">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+  <conditionalFormatting sqref="A1:V22">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>0</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
       <formula>0.4</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>0.8</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V33">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+  <conditionalFormatting sqref="A33:V33 A1:V22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>1</formula>
     </cfRule>
